--- a/BackTest/2019-10-28 BackTest WAX.xlsx
+++ b/BackTest/2019-10-28 BackTest WAX.xlsx
@@ -1256,17 +1256,13 @@
         <v>29.43333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1295,22 +1291,14 @@
         <v>29.46666666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1326,14 @@
         <v>29.59999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1381,22 +1361,14 @@
         <v>29.59999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1424,22 +1396,14 @@
         <v>29.63333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1467,22 +1431,14 @@
         <v>29.53333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1510,22 +1466,14 @@
         <v>29.49999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1501,14 @@
         <v>29.43333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1596,22 +1536,14 @@
         <v>29.4</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1645,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1680,22 +1606,14 @@
         <v>29.46666666666666</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1723,22 +1641,14 @@
         <v>29.56666666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1766,22 +1676,14 @@
         <v>29.63333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K37" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1809,22 +1711,14 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K38" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1858,16 +1752,12 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="K39" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.6</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1895,20 +1785,18 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -1938,20 +1826,18 @@
         <v>29.7</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1981,22 +1867,14 @@
         <v>29.6</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2030,14 +1908,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2071,14 +1943,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2112,14 +1978,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2147,22 +2007,14 @@
         <v>29.4</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K46" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2190,22 +2042,14 @@
         <v>29.4</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2233,22 +2077,14 @@
         <v>29.46666666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2276,22 +2112,14 @@
         <v>29.53333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K49" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2319,22 +2147,14 @@
         <v>29.49999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2362,22 +2182,14 @@
         <v>29.43333333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2405,22 +2217,14 @@
         <v>29.4</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K52" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2448,22 +2252,14 @@
         <v>29.4</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K53" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2491,22 +2287,14 @@
         <v>29.36666666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K54" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2540,16 +2328,12 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="K55" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.3</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2583,14 +2367,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="K56" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -2626,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="K57" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2669,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="K58" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2706,16 +2490,14 @@
         <v>29.30000000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2749,16 +2531,14 @@
         <v>29.33333333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2792,16 +2572,14 @@
         <v>29.53333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2835,16 +2613,14 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2878,16 +2654,14 @@
         <v>29.8</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2921,16 +2695,14 @@
         <v>29.8</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2964,16 +2736,14 @@
         <v>29.76666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3007,16 +2777,14 @@
         <v>29.73333333333334</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3050,16 +2818,14 @@
         <v>29.73333333333334</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3093,16 +2859,14 @@
         <v>29.73333333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3143,7 +2907,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3184,7 +2948,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3218,16 +2982,14 @@
         <v>29.60000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3261,16 +3023,14 @@
         <v>29.63333333333334</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3304,16 +3064,14 @@
         <v>29.60000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3347,16 +3105,14 @@
         <v>29.63333333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3390,16 +3146,14 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3433,16 +3187,14 @@
         <v>29.70000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3476,16 +3228,14 @@
         <v>29.70000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3519,16 +3269,14 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3562,16 +3310,14 @@
         <v>29.63333333333334</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3605,16 +3351,14 @@
         <v>29.60000000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3648,16 +3392,14 @@
         <v>29.63333333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3691,16 +3433,14 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>29.7</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3734,16 +3474,14 @@
         <v>29.73333333333334</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3777,16 +3515,14 @@
         <v>29.76666666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3827,7 +3563,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3868,7 +3604,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3909,7 +3645,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3950,7 +3686,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3991,7 +3727,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4032,7 +3768,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4073,7 +3809,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4114,7 +3850,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4155,7 +3891,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4196,7 +3932,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4237,7 +3973,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4278,7 +4014,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4319,7 +4055,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4360,7 +4096,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4401,7 +4137,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4442,7 +4178,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4483,7 +4219,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4524,7 +4260,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4565,7 +4301,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4606,7 +4342,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4647,7 +4383,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4688,7 +4424,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4729,7 +4465,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4770,7 +4506,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4811,7 +4547,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4852,7 +4588,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4893,7 +4629,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4934,7 +4670,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4975,7 +4711,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5016,7 +4752,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5057,7 +4793,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5098,7 +4834,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5139,7 +4875,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5180,7 +4916,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5221,7 +4957,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5262,7 +4998,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5303,7 +5039,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5344,7 +5080,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5385,7 +5121,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5426,7 +5162,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5467,7 +5203,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5508,7 +5244,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5549,7 +5285,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5590,7 +5326,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5631,7 +5367,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5668,19 +5404,19 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>1.069576271186441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5709,11 +5445,17 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5744,11 +5486,17 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5782,8 +5530,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5817,8 +5571,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5852,8 +5612,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5887,8 +5653,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5922,8 +5694,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5957,8 +5735,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5992,8 +5776,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6027,8 +5817,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6062,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +5899,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6132,8 +5940,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6167,8 +5981,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6202,8 +6022,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6237,8 +6063,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6272,8 +6104,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6307,8 +6145,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6342,8 +6186,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6377,8 +6227,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6412,8 +6268,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6447,8 +6309,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6482,8 +6350,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6517,8 +6391,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6552,8 +6432,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6587,8 +6473,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6622,8 +6514,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6657,8 +6555,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6692,8 +6596,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +6637,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6762,8 +6678,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6797,8 +6719,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6832,8 +6760,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6867,8 +6801,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6902,8 +6842,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6937,8 +6883,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6972,8 +6924,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7007,8 +6965,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7042,8 +7006,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7077,8 +7047,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7112,8 +7088,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7147,8 +7129,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7182,8 +7170,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7217,8 +7211,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7287,8 +7293,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7322,8 +7334,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7357,8 +7375,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7392,8 +7416,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7427,8 +7457,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7462,8 +7498,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7497,8 +7539,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7532,8 +7580,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7567,8 +7621,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7602,8 +7662,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7637,8 +7703,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7672,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7707,8 +7785,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7742,8 +7826,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7777,8 +7867,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7812,8 +7908,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7847,8 +7949,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +7990,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7917,8 +8031,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7952,8 +8072,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7987,8 +8113,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8022,8 +8154,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8057,8 +8195,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8092,8 +8236,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8127,8 +8277,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8162,8 +8318,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8197,8 +8359,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8232,8 +8400,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8267,8 +8441,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8302,8 +8482,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8337,8 +8523,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8372,8 +8564,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8605,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8442,8 +8646,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8477,8 +8687,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8512,8 +8728,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8547,8 +8769,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8582,8 +8810,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8617,8 +8851,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8652,8 +8892,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8687,8 +8933,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8722,8 +8974,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8757,8 +9015,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8792,8 +9056,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8827,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8862,8 +9138,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8897,8 +9179,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8932,8 +9220,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8967,8 +9261,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9002,8 +9302,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9037,8 +9343,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9072,8 +9384,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9107,8 +9425,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9142,8 +9466,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9177,8 +9507,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9212,8 +9548,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9247,8 +9589,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9282,8 +9630,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9317,8 +9671,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9352,8 +9712,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9387,8 +9753,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9422,8 +9794,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9457,8 +9835,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9492,8 +9876,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9527,8 +9917,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +9958,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9597,8 +9999,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9632,8 +10040,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9664,13 +10078,19 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M244" t="n">
-        <v>1</v>
+        <v>1.080324232081911</v>
       </c>
     </row>
     <row r="245">
@@ -11169,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
@@ -11204,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
@@ -11239,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
@@ -11274,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
@@ -11309,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
@@ -11379,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest WAX.xlsx
+++ b/BackTest/2019-10-28 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1177,17 +1177,11 @@
         <v>-1037435.2953</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1216,17 +1210,15 @@
         <v>-1037435.2953</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>29.1</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1255,15 +1247,17 @@
         <v>-1027324.893799999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>29.1</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1294,12 +1288,14 @@
         <v>-1054722.294199999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>29.3</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1333,12 +1329,14 @@
         <v>-1054722.294199999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>29.2</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1372,12 +1370,14 @@
         <v>-1103668.082499999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>29.2</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1411,12 +1411,14 @@
         <v>-1103668.082499999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>29.1</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1450,10 +1452,14 @@
         <v>-1103668.082499999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1487,12 +1493,14 @@
         <v>-1096288.287999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>29.1</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1526,10 +1534,14 @@
         <v>-1062582.861499999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1563,10 +1575,14 @@
         <v>-1026373.272599999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1603,7 +1619,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1637,10 +1655,14 @@
         <v>-1002311.208399999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1677,7 +1699,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1714,7 +1738,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1751,7 +1777,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1788,7 +1816,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,7 +1855,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1862,7 +1894,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1899,7 +1933,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1936,7 +1972,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1973,7 +2011,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,7 +2050,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2047,7 +2089,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2084,7 +2128,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2121,7 +2167,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2158,7 +2206,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2195,7 +2245,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2232,7 +2284,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2269,7 +2323,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2306,7 +2362,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2340,10 +2398,14 @@
         <v>-1160539.930199999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2377,10 +2439,14 @@
         <v>-1157776.097099999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,10 +2480,14 @@
         <v>-1156724.203499999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2454,7 +2524,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2491,7 +2563,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,7 +2602,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2565,7 +2641,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2602,7 +2680,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,7 +2719,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2676,7 +2758,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2713,7 +2797,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2747,10 +2833,14 @@
         <v>-1154604.558199999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2784,10 +2874,14 @@
         <v>-1271778.647199999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>30</v>
+      </c>
+      <c r="J67" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2821,12 +2915,14 @@
         <v>-1269258.647199999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>29.7</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2860,12 +2956,14 @@
         <v>-1269258.647199999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>29.9</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,7 +3000,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2936,10 +3036,14 @@
         <v>-1269258.647199999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,7 +3080,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3010,10 +3116,14 @@
         <v>-1269258.647199999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3047,12 +3157,14 @@
         <v>-1272550.726299999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>29.9</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,12 +3198,14 @@
         <v>-1272540.726299999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>29.5</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3125,12 +3239,14 @@
         <v>-1272540.726299999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>29.9</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3164,12 +3280,14 @@
         <v>-1277540.726299999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>29.9</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3203,12 +3321,14 @@
         <v>-1277540.726299999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>29.8</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,10 +3362,14 @@
         <v>-1279027.723799999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,10 +3403,14 @@
         <v>-1307126.970799999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,10 +3444,14 @@
         <v>-1308486.970799999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,10 +3485,14 @@
         <v>-1308486.970799999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,10 +3526,14 @@
         <v>-1308486.970799999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,10 +3567,14 @@
         <v>-1305480.718099999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,10 +3608,14 @@
         <v>-1305480.718099999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3501,10 +3649,14 @@
         <v>-1268082.123399999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,10 +3690,14 @@
         <v>-1284776.191599999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,7 +3734,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3615,7 +3773,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,7 +3812,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,7 +3851,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3726,7 +3890,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,7 +3929,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3800,7 +3968,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,7 +4007,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3874,7 +4046,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,7 +4085,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,12 +4121,12 @@
         <v>-1357643.876799999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,7 +4163,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,7 +4202,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4061,7 +4241,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,7 +4280,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,7 +4319,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,7 +4358,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,7 +4397,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,7 +4436,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,7 +4475,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4317,10 +4511,14 @@
         <v>-1596700.788699999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J108" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,10 +4552,14 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4391,10 +4593,14 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J110" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,10 +4634,14 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J111" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4465,10 +4675,14 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J112" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,12 +4716,14 @@
         <v>-1601197.924999999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>29.4</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4541,10 +4757,14 @@
         <v>-1601703.410599999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4578,10 +4798,14 @@
         <v>-1601703.410599999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,10 +4839,14 @@
         <v>-1596703.410599999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,10 +4880,14 @@
         <v>-1619273.040299999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4689,12 +4921,14 @@
         <v>-1619102.972272789</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>29.2</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,10 +4962,14 @@
         <v>-1619102.972272789</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J119" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,12 +5003,14 @@
         <v>-1528497.153972789</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>29.4</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4804,10 +5044,14 @@
         <v>-1528497.153972789</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J121" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4844,7 +5088,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4881,7 +5127,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4918,7 +5166,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4955,7 +5205,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4992,7 +5244,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5029,7 +5283,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5063,10 +5319,14 @@
         <v>-1552400.508972789</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J128" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5100,10 +5360,14 @@
         <v>-1547471.363972789</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J129" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5137,10 +5401,14 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J130" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5174,10 +5442,14 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J131" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,10 +5483,14 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J132" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,10 +5524,14 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J133" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5285,10 +5565,14 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J134" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,12 +5606,14 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>29.7</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,12 +5647,14 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>29.7</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,10 +5688,14 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J137" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5437,10 +5729,14 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J138" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,12 +5770,14 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>29.6</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5513,12 +5811,14 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>29.6</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5552,12 +5852,14 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>29.7</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5591,12 +5893,14 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>29.7</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5630,12 +5934,14 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>29.8</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5669,10 +5975,14 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5706,10 +6016,14 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J145" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5746,7 +6060,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5783,7 +6099,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,7 +6138,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5857,7 +6177,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,7 +6216,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,7 +6255,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,7 +6294,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,7 +6333,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,10 +6369,14 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J154" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6076,10 +6410,14 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J155" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,10 +6451,14 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J156" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,10 +6492,14 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J157" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6187,12 +6533,14 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>29.8</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6226,12 +6574,14 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>29.8</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6265,12 +6615,14 @@
         <v>-1744525.310072789</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>29.8</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6304,12 +6656,12 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,7 +6698,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,7 +6737,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6417,12 +6773,12 @@
         <v>-1852789.786772789</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6459,7 +6815,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,7 +6854,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6530,10 +6890,14 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J167" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6567,12 +6931,14 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>29.9</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6606,10 +6972,14 @@
         <v>-1876295.087172789</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J169" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6643,12 +7013,14 @@
         <v>-1876295.087172789</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>29.8</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6682,12 +7054,14 @@
         <v>-1877696.40687279</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>29.8</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6721,12 +7095,14 @@
         <v>-1828502.36757279</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>29.7</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6760,10 +7136,14 @@
         <v>-1828502.36757279</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J173" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6800,7 +7180,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6837,7 +7219,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,7 +7258,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,7 +7297,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6948,7 +7336,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,7 +7375,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,7 +7414,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7059,7 +7453,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7096,7 +7492,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7133,7 +7531,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7170,7 +7570,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7207,7 +7609,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7244,7 +7648,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7281,7 +7687,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7318,7 +7726,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7355,7 +7765,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,7 +7804,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7429,7 +7843,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7466,7 +7882,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7503,7 +7921,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7540,7 +7960,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7577,7 +7999,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7614,7 +8038,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,7 +8077,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,7 +8116,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7725,7 +8155,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,7 +8194,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7799,7 +8233,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,7 +8272,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7873,7 +8311,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7907,10 +8347,14 @@
         <v>-1641899.829239049</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7944,10 +8388,14 @@
         <v>-1641899.829239049</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7981,10 +8429,14 @@
         <v>-1641899.829239049</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8018,10 +8470,14 @@
         <v>-1641423.36703905</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8055,10 +8511,14 @@
         <v>-1617677.61523905</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J208" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8095,7 +8555,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8132,7 +8594,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8169,7 +8633,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8206,7 +8672,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,7 +8711,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8280,7 +8750,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8317,7 +8789,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8354,7 +8828,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8391,7 +8867,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8428,7 +8906,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8462,10 +8942,14 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J219" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8499,10 +8983,14 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J220" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8536,10 +9024,14 @@
         <v>-1642395.57353905</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J221" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8573,10 +9065,14 @@
         <v>-1642156.88933905</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J222" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8613,7 +9109,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8647,10 +9145,14 @@
         <v>-1643406.88933905</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8684,10 +9186,14 @@
         <v>-1695922.71063905</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8721,10 +9227,14 @@
         <v>-1693156.66343905</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8758,10 +9268,14 @@
         <v>-1693156.66343905</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,10 +9309,14 @@
         <v>-1772013.79583905</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J228" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8832,10 +9350,14 @@
         <v>-1772013.79583905</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>30</v>
+      </c>
+      <c r="J229" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,10 +9391,14 @@
         <v>-1770319.37473905</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>30</v>
+      </c>
+      <c r="J230" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,10 +9432,14 @@
         <v>-1785261.92473905</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8943,10 +9473,14 @@
         <v>-1778837.45933905</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J232" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,10 +9514,14 @@
         <v>-1778837.45933905</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J233" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9017,10 +9555,14 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J234" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9054,10 +9596,14 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>30</v>
+      </c>
+      <c r="J235" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9091,10 +9637,14 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>30</v>
+      </c>
+      <c r="J236" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9128,10 +9678,14 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>30</v>
+      </c>
+      <c r="J237" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9168,7 +9722,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9205,7 +9761,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9242,7 +9800,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9279,7 +9839,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9316,7 +9878,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9353,7 +9917,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,7 +9956,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9427,7 +9995,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9464,7 +10034,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9501,7 +10073,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9538,7 +10112,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9575,7 +10151,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,7 +10190,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9649,7 +10229,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9686,7 +10268,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9723,7 +10307,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9760,7 +10346,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9797,7 +10385,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9834,7 +10424,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9868,10 +10460,14 @@
         <v>-1734524.15313905</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J257" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9905,10 +10501,14 @@
         <v>-1734524.15313905</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J258" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9942,10 +10542,14 @@
         <v>-1735774.15313905</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J259" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9979,10 +10583,14 @@
         <v>-1730920.57053905</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J260" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10016,10 +10624,14 @@
         <v>-1741399.283039049</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J261" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10056,7 +10668,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10093,7 +10707,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10127,10 +10743,14 @@
         <v>-1759151.819939049</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J264" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10164,10 +10784,14 @@
         <v>-1766379.677639049</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J265" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10201,10 +10825,14 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10238,10 +10866,14 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J267" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10275,10 +10907,14 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J268" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10312,10 +10948,14 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J269" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10349,10 +10989,14 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J270" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10386,10 +11030,14 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J271" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10423,10 +11071,14 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J272" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10460,10 +11112,14 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J273" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10497,10 +11153,14 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J274" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10534,10 +11194,14 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J275" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10571,10 +11235,14 @@
         <v>-1729586.477839049</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J276" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10608,10 +11276,14 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J277" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10645,10 +11317,14 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J278" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10682,10 +11358,14 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J279" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10719,10 +11399,14 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J280" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10756,10 +11440,14 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J281" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10793,10 +11481,14 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J282" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10830,10 +11522,14 @@
         <v>-1653301.505739049</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J283" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10867,10 +11563,14 @@
         <v>-1653301.505739049</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="J284" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10904,10 +11604,14 @@
         <v>-1649506.852039049</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="J285" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10941,10 +11645,14 @@
         <v>-1737551.768739049</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>31</v>
+      </c>
+      <c r="J286" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10978,10 +11686,14 @@
         <v>-1737551.768739049</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J287" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11015,10 +11727,14 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J288" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11052,10 +11768,14 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J289" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11089,10 +11809,14 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J290" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11126,12 +11850,14 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>30.5</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11165,10 +11891,14 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J292" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11202,10 +11932,14 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J293" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11239,10 +11973,14 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J294" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11276,10 +12014,14 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J295" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11313,10 +12055,14 @@
         <v>-1662174.00983905</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J296" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11350,10 +12096,14 @@
         <v>-1649918.89423905</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J297" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11387,10 +12137,14 @@
         <v>-1630624.22473905</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="J298" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11424,10 +12178,14 @@
         <v>-1563582.81563905</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="J299" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11461,10 +12219,14 @@
         <v>-1312152.66783905</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J300" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11501,7 +12263,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11535,16 +12299,20 @@
         <v>-1190480.13483905</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L302" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
       <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
@@ -11570,11 +12338,17 @@
         <v>-1271156.716039049</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11603,11 +12377,17 @@
         <v>-1347423.124739049</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11636,11 +12416,17 @@
         <v>-1332844.815439049</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11672,8 +12458,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11705,8 +12497,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11738,8 +12536,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11768,11 +12572,19 @@
         <v>-1404618.002539049</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J309" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11801,11 +12613,19 @@
         <v>-1404618.002539049</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J310" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11834,11 +12654,19 @@
         <v>-1391809.175239049</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J311" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11870,8 +12698,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11900,11 +12734,19 @@
         <v>-1433310.992739049</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J313" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11933,11 +12775,19 @@
         <v>-1493908.905639049</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J314" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11966,11 +12816,19 @@
         <v>-1493908.905639049</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J315" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11999,11 +12857,19 @@
         <v>-1512161.819939049</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J316" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12032,11 +12898,19 @@
         <v>-1512161.819939049</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J317" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12065,11 +12939,19 @@
         <v>-1532120.077539049</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J318" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12098,11 +12980,19 @@
         <v>-1521790.044535749</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J319" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12131,11 +13021,19 @@
         <v>-1507124.578935749</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J320" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12164,11 +13062,19 @@
         <v>-1507124.578935749</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J321" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12197,11 +13103,19 @@
         <v>-1507124.578935749</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J322" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12230,11 +13144,19 @@
         <v>-1507124.578935749</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J323" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12263,11 +13185,19 @@
         <v>-1505904.578935749</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J324" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12296,11 +13226,19 @@
         <v>-1504514.578935749</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J325" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12332,8 +13270,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12365,8 +13309,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12398,8 +13348,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12431,8 +13387,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12464,8 +13426,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12494,11 +13462,17 @@
         <v>-1488724.013635749</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12527,11 +13501,17 @@
         <v>-1488724.013635749</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12563,8 +13543,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12596,8 +13582,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12629,8 +13621,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12662,8 +13660,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12695,8 +13699,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12728,8 +13738,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12758,11 +13774,17 @@
         <v>-1399558.417835749</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12794,8 +13816,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12827,8 +13855,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12860,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12893,8 +13933,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12926,8 +13972,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12959,8 +14011,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12992,8 +14050,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13022,11 +14086,17 @@
         <v>-1368411.85223575</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13058,8 +14128,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13091,8 +14167,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13124,8 +14206,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13154,11 +14242,17 @@
         <v>-1479166.09513575</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13187,11 +14281,17 @@
         <v>-1479166.09513575</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13220,11 +14320,17 @@
         <v>-1479166.09513575</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13253,11 +14359,17 @@
         <v>-1486330.10713575</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13289,8 +14401,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13322,8 +14440,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13355,8 +14479,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13388,8 +14518,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13421,8 +14557,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13454,8 +14596,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13487,8 +14635,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13520,8 +14674,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13553,8 +14713,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13586,8 +14752,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13619,8 +14791,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13652,8 +14830,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13685,8 +14869,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13718,8 +14908,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13751,8 +14947,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13784,8 +14986,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13817,8 +15025,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13850,8 +15064,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13883,8 +15103,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13916,8 +15142,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13949,8 +15181,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13982,8 +15220,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14012,15 +15256,23 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
+        <v>1.104965635738832</v>
+      </c>
+      <c r="M377" t="n">
+        <v>1.038194444444444</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -14045,7 +15297,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14078,7 +15330,7 @@
         <v>-1324888.47413575</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14111,7 +15363,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14144,7 +15396,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14177,7 +15429,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14210,7 +15462,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14243,7 +15495,7 @@
         <v>-1381853.27793575</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14276,7 +15528,7 @@
         <v>-1382654.06453575</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14309,7 +15561,7 @@
         <v>-1382654.06453575</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14342,7 +15594,7 @@
         <v>-1382654.06453575</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14375,7 +15627,7 @@
         <v>-1376873.81453575</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14408,7 +15660,7 @@
         <v>-1377043.81453575</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14441,7 +15693,7 @@
         <v>-1376648.04273575</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14474,7 +15726,7 @@
         <v>-1376818.04273575</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14507,7 +15759,7 @@
         <v>-1376738.04273575</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14540,7 +15792,7 @@
         <v>-1376728.04273575</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14573,7 +15825,7 @@
         <v>-1377619.42683575</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14606,7 +15858,7 @@
         <v>-1377619.42683575</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14639,7 +15891,7 @@
         <v>-1377619.42683575</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14672,7 +15924,7 @@
         <v>-1433060.104235749</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14705,7 +15957,7 @@
         <v>-1433060.104235749</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14716,6 +15968,6 @@
       <c r="M398" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest WAX.xlsx
+++ b/BackTest/2019-10-28 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1210,14 +1210,10 @@
         <v>-1037435.2953</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1247,19 +1243,11 @@
         <v>-1027324.893799999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1288,19 +1276,11 @@
         <v>-1054722.294199999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1329,19 +1309,11 @@
         <v>-1054722.294199999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1370,19 +1342,11 @@
         <v>-1103668.082499999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1411,19 +1375,11 @@
         <v>-1103668.082499999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1452,19 +1408,11 @@
         <v>-1103668.082499999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1493,19 +1441,11 @@
         <v>-1096288.287999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1534,19 +1474,11 @@
         <v>-1062582.861499999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1575,19 +1507,11 @@
         <v>-1026373.272599999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1619,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1655,19 +1573,11 @@
         <v>-1002311.208399999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1699,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1738,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1777,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1816,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1855,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1894,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1933,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1972,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2011,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2050,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2089,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2128,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2167,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2206,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2245,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2284,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2323,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2398,19 +2200,11 @@
         <v>-1160539.930199999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2439,19 +2233,11 @@
         <v>-1157776.097099999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2480,19 +2266,11 @@
         <v>-1156724.203499999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>30</v>
-      </c>
-      <c r="J57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2524,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2563,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2602,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2641,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2680,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2719,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2758,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2797,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2833,19 +2563,11 @@
         <v>-1154604.558199999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J66" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2874,19 +2596,11 @@
         <v>-1271778.647199999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>30</v>
-      </c>
-      <c r="J67" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2915,19 +2629,11 @@
         <v>-1269258.647199999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2956,19 +2662,11 @@
         <v>-1269258.647199999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3000,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3036,19 +2728,11 @@
         <v>-1269258.647199999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3080,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3116,19 +2794,11 @@
         <v>-1269258.647199999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3157,19 +2827,11 @@
         <v>-1272550.726299999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3198,19 +2860,11 @@
         <v>-1272540.726299999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3239,19 +2893,11 @@
         <v>-1272540.726299999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3280,19 +2926,11 @@
         <v>-1277540.726299999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J77" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3321,19 +2959,11 @@
         <v>-1277540.726299999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J78" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3362,19 +2992,11 @@
         <v>-1279027.723799999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J79" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3403,19 +3025,11 @@
         <v>-1307126.970799999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3444,19 +3058,11 @@
         <v>-1308486.970799999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3485,19 +3091,11 @@
         <v>-1308486.970799999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3526,19 +3124,11 @@
         <v>-1308486.970799999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3567,19 +3157,11 @@
         <v>-1305480.718099999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3608,19 +3190,11 @@
         <v>-1305480.718099999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3649,19 +3223,11 @@
         <v>-1268082.123399999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3690,19 +3256,11 @@
         <v>-1284776.191599999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J87" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3734,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3773,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3812,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3968,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4007,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4085,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4124,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4202,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4241,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4280,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4319,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4358,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4397,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4436,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4475,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4511,19 +3949,11 @@
         <v>-1596700.788699999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J108" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4552,19 +3982,11 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J109" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4593,19 +4015,11 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J110" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4634,19 +4048,11 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J111" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4675,19 +4081,11 @@
         <v>-1600037.924999999</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J112" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4716,19 +4114,11 @@
         <v>-1601197.924999999</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J113" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4757,19 +4147,11 @@
         <v>-1601703.410599999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4798,19 +4180,11 @@
         <v>-1601703.410599999</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4839,19 +4213,11 @@
         <v>-1596703.410599999</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4880,19 +4246,11 @@
         <v>-1619273.040299999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J117" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4921,19 +4279,11 @@
         <v>-1619102.972272789</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4962,19 +4312,11 @@
         <v>-1619102.972272789</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J119" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5003,19 +4345,11 @@
         <v>-1528497.153972789</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J120" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5044,19 +4378,11 @@
         <v>-1528497.153972789</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J121" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5088,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5127,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5166,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5205,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5244,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5283,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5319,19 +4609,11 @@
         <v>-1552400.508972789</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J128" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5360,19 +4642,11 @@
         <v>-1547471.363972789</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J129" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5401,19 +4675,11 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J130" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5442,19 +4708,11 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J131" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5483,19 +4741,11 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J132" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5524,19 +4774,11 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J133" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5565,19 +4807,11 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J134" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5606,19 +4840,11 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J135" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5647,19 +4873,11 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J136" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5688,19 +4906,11 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5729,19 +4939,11 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J138" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5770,19 +4972,11 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J139" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5811,19 +5005,11 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J140" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5852,19 +5038,11 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J141" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5893,19 +5071,11 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J142" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5934,19 +5104,11 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J143" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5975,19 +5137,11 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J144" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6016,19 +5170,11 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J145" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6060,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6099,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6138,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6177,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6216,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6255,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6294,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6333,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6369,19 +5467,11 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J154" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6410,19 +5500,11 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J155" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6451,19 +5533,11 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J156" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6492,19 +5566,11 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J157" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6533,19 +5599,11 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J158" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6574,19 +5632,11 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J159" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6615,19 +5665,11 @@
         <v>-1744525.310072789</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J160" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6659,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6698,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6737,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6776,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6815,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6854,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6890,19 +5896,11 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J167" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6931,19 +5929,11 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J168" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6972,19 +5962,11 @@
         <v>-1876295.087172789</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J169" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7013,19 +5995,11 @@
         <v>-1876295.087172789</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J170" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7054,19 +6028,11 @@
         <v>-1877696.40687279</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J171" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7095,19 +6061,11 @@
         <v>-1828502.36757279</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J172" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7136,19 +6094,11 @@
         <v>-1828502.36757279</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J173" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7180,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7219,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7258,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7297,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7336,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7375,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7414,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7453,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7492,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7531,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7567,17 +6457,11 @@
         <v>-1679418.87307279</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7606,17 +6490,11 @@
         <v>-1579063.507718249</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7645,17 +6523,11 @@
         <v>-1518172.933139049</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7687,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7726,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7765,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7804,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7843,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7882,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7921,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7960,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7999,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8038,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8077,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8116,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8155,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8194,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8233,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8272,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8311,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8347,19 +7117,11 @@
         <v>-1641899.829239049</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J204" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8388,19 +7150,11 @@
         <v>-1641899.829239049</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J205" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8429,19 +7183,11 @@
         <v>-1641899.829239049</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J206" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8470,19 +7216,11 @@
         <v>-1641423.36703905</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J207" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8511,19 +7249,11 @@
         <v>-1617677.61523905</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J208" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8552,17 +7282,11 @@
         <v>-1617677.61523905</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8591,17 +7315,11 @@
         <v>-1624108.966839049</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8630,17 +7348,11 @@
         <v>-1624108.966839049</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8669,17 +7381,11 @@
         <v>-1621640.582939049</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8708,17 +7414,11 @@
         <v>-1620045.307839049</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8750,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8789,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8825,17 +7513,11 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8864,17 +7546,11 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8906,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8942,19 +7612,11 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J219" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8983,19 +7645,11 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J220" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9024,19 +7678,11 @@
         <v>-1642395.57353905</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J221" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9065,19 +7711,11 @@
         <v>-1642156.88933905</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J222" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9109,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9145,19 +7777,11 @@
         <v>-1643406.88933905</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J224" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9186,19 +7810,11 @@
         <v>-1695922.71063905</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J225" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9227,19 +7843,11 @@
         <v>-1693156.66343905</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J226" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9268,19 +7876,11 @@
         <v>-1693156.66343905</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J227" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9309,19 +7909,11 @@
         <v>-1772013.79583905</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J228" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9350,19 +7942,11 @@
         <v>-1772013.79583905</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>30</v>
-      </c>
-      <c r="J229" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9391,19 +7975,11 @@
         <v>-1770319.37473905</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>30</v>
-      </c>
-      <c r="J230" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9432,19 +8008,11 @@
         <v>-1785261.92473905</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J231" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9473,19 +8041,11 @@
         <v>-1778837.45933905</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J232" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9514,19 +8074,11 @@
         <v>-1778837.45933905</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J233" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9555,19 +8107,11 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J234" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9596,19 +8140,11 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>30</v>
-      </c>
-      <c r="J235" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9637,19 +8173,11 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>30</v>
-      </c>
-      <c r="J236" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9678,19 +8206,11 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>30</v>
-      </c>
-      <c r="J237" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9722,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9758,17 +8272,15 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>30</v>
+      </c>
       <c r="J239" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9801,11 +8313,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -9840,11 +8352,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -9878,14 +8390,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9917,14 +8423,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9956,14 +8456,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9995,14 +8489,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10034,14 +8522,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10073,14 +8555,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10112,14 +8588,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10151,14 +8621,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10190,14 +8654,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10229,14 +8687,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10268,14 +8720,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10307,14 +8753,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10343,17 +8783,11 @@
         <v>-1730114.15313905</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10385,14 +8819,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10424,14 +8852,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10460,19 +8882,11 @@
         <v>-1734524.15313905</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J257" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10501,19 +8915,11 @@
         <v>-1734524.15313905</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J258" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10542,19 +8948,11 @@
         <v>-1735774.15313905</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J259" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10583,19 +8981,11 @@
         <v>-1730920.57053905</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J260" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10624,19 +9014,11 @@
         <v>-1741399.283039049</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J261" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10668,14 +9050,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10704,17 +9080,15 @@
         <v>-1759151.819939049</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J263" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.3</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10749,11 +9123,11 @@
         <v>30.3</v>
       </c>
       <c r="J264" t="n">
-        <v>29.1</v>
+        <v>30.3</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -10784,17 +9158,15 @@
         <v>-1766379.677639049</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
         <v>30.3</v>
-      </c>
-      <c r="J265" t="n">
-        <v>29.1</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -10831,13 +9203,9 @@
         <v>30.1</v>
       </c>
       <c r="J266" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.1</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10872,11 +9240,11 @@
         <v>30.3</v>
       </c>
       <c r="J267" t="n">
-        <v>29.1</v>
+        <v>30.1</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -10913,11 +9281,11 @@
         <v>30.3</v>
       </c>
       <c r="J268" t="n">
-        <v>29.1</v>
+        <v>30.1</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L268" t="n">
@@ -10954,13 +9322,9 @@
         <v>30.3</v>
       </c>
       <c r="J269" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.3</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10995,11 +9359,11 @@
         <v>30.4</v>
       </c>
       <c r="J270" t="n">
-        <v>29.1</v>
+        <v>30.3</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -11036,11 +9400,11 @@
         <v>30.4</v>
       </c>
       <c r="J271" t="n">
-        <v>29.1</v>
+        <v>30.3</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -11077,13 +9441,9 @@
         <v>30.4</v>
       </c>
       <c r="J272" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.4</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11112,17 +9472,15 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
         <v>30.4</v>
-      </c>
-      <c r="J273" t="n">
-        <v>29.1</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -11153,17 +9511,15 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
         <v>30.4</v>
-      </c>
-      <c r="J274" t="n">
-        <v>29.1</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -11194,19 +9550,11 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J275" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11235,19 +9583,11 @@
         <v>-1729586.477839049</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J276" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11276,19 +9616,11 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J277" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11317,19 +9649,11 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J278" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11358,19 +9682,11 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J279" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11399,19 +9715,11 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J280" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11440,19 +9748,11 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J281" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11481,19 +9781,11 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J282" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11522,19 +9814,11 @@
         <v>-1653301.505739049</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J283" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11563,19 +9847,11 @@
         <v>-1653301.505739049</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J284" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11604,19 +9880,11 @@
         <v>-1649506.852039049</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J285" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11645,19 +9913,11 @@
         <v>-1737551.768739049</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>31</v>
-      </c>
-      <c r="J286" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11686,19 +9946,11 @@
         <v>-1737551.768739049</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J287" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11727,19 +9979,11 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J288" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11768,19 +10012,11 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J289" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11809,19 +10045,11 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J290" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11850,19 +10078,11 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J291" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11891,19 +10111,11 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J292" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11932,19 +10144,11 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J293" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11973,19 +10177,11 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J294" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12014,19 +10210,11 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J295" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12055,19 +10243,11 @@
         <v>-1662174.00983905</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J296" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12096,19 +10276,11 @@
         <v>-1649918.89423905</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J297" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12137,19 +10309,11 @@
         <v>-1630624.22473905</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J298" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12178,19 +10342,11 @@
         <v>-1563582.81563905</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J299" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12219,19 +10375,11 @@
         <v>-1312152.66783905</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J300" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12263,14 +10411,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12302,14 +10444,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12341,14 +10477,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12380,14 +10510,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12419,14 +10543,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12458,14 +10576,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12497,14 +10609,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12536,14 +10642,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12572,19 +10672,11 @@
         <v>-1404618.002539049</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J309" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12613,19 +10705,11 @@
         <v>-1404618.002539049</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J310" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12654,19 +10738,11 @@
         <v>-1391809.175239049</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J311" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12698,14 +10774,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12734,19 +10804,11 @@
         <v>-1433310.992739049</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J313" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12775,19 +10837,11 @@
         <v>-1493908.905639049</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J314" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12816,19 +10870,11 @@
         <v>-1493908.905639049</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J315" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12857,19 +10903,11 @@
         <v>-1512161.819939049</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J316" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12898,19 +10936,11 @@
         <v>-1512161.819939049</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J317" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12939,19 +10969,11 @@
         <v>-1532120.077539049</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J318" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12980,19 +11002,11 @@
         <v>-1521790.044535749</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J319" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13021,19 +11035,11 @@
         <v>-1507124.578935749</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J320" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13062,19 +11068,11 @@
         <v>-1507124.578935749</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J321" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13103,19 +11101,11 @@
         <v>-1507124.578935749</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J322" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13144,19 +11134,11 @@
         <v>-1507124.578935749</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J323" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13185,19 +11167,11 @@
         <v>-1505904.578935749</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J324" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13226,19 +11200,11 @@
         <v>-1504514.578935749</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J325" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13270,14 +11236,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13309,14 +11269,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13348,14 +11302,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13387,14 +11335,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13423,17 +11365,11 @@
         <v>-1518866.840035749</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13465,14 +11401,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13501,17 +11431,11 @@
         <v>-1488724.013635749</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13543,14 +11467,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13582,14 +11500,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13621,14 +11533,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13660,14 +11566,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13699,14 +11599,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13738,14 +11632,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13777,14 +11665,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13816,14 +11698,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13855,14 +11731,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13894,14 +11764,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13933,14 +11797,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13972,14 +11830,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -14011,14 +11863,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14050,14 +11896,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14089,14 +11929,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14128,14 +11962,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14167,14 +11995,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14206,14 +12028,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14245,14 +12061,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14284,14 +12094,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14323,14 +12127,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14362,14 +12160,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14401,14 +12193,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14440,14 +12226,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14479,14 +12259,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14518,14 +12292,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14557,14 +12325,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14596,14 +12358,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14635,14 +12391,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14674,14 +12424,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14713,14 +12457,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14752,14 +12490,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14791,14 +12523,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14830,14 +12556,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14869,14 +12589,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14908,14 +12622,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14947,14 +12655,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14986,14 +12688,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15025,14 +12721,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15064,14 +12754,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15103,14 +12787,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15142,14 +12820,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15181,14 +12853,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15220,14 +12886,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15256,23 +12916,15 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
-        <v>1.104965635738832</v>
-      </c>
-      <c r="M377" t="n">
-        <v>1.038194444444444</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -15297,7 +12949,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -15330,7 +12982,7 @@
         <v>-1324888.47413575</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -15363,7 +13015,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -15396,7 +13048,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15429,7 +13081,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15462,7 +13114,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15495,7 +13147,7 @@
         <v>-1381853.27793575</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15528,7 +13180,7 @@
         <v>-1382654.06453575</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15561,7 +13213,7 @@
         <v>-1382654.06453575</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15594,7 +13246,7 @@
         <v>-1382654.06453575</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15627,7 +13279,7 @@
         <v>-1376873.81453575</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15660,7 +13312,7 @@
         <v>-1377043.81453575</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15693,7 +13345,7 @@
         <v>-1376648.04273575</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15726,7 +13378,7 @@
         <v>-1376818.04273575</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15759,7 +13411,7 @@
         <v>-1376738.04273575</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15792,7 +13444,7 @@
         <v>-1376728.04273575</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15825,7 +13477,7 @@
         <v>-1377619.42683575</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15858,7 +13510,7 @@
         <v>-1377619.42683575</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15891,7 +13543,7 @@
         <v>-1377619.42683575</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15924,7 +13576,7 @@
         <v>-1433060.104235749</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15957,7 +13609,7 @@
         <v>-1433060.104235749</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15968,6 +13620,6 @@
       <c r="M398" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest WAX.xlsx
+++ b/BackTest/2019-10-28 BackTest WAX.xlsx
@@ -4609,11 +4609,17 @@
         <v>-1552400.508972789</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4648,17 @@
         <v>-1547471.363972789</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>29.5</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4691,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4724,17 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4763,17 @@
         <v>-1554868.859372789</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4802,17 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4841,17 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4880,17 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4919,17 @@
         <v>-1544346.973872789</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4958,17 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +4997,17 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5036,17 @@
         <v>-1554652.993772789</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5075,17 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5114,17 @@
         <v>-1553642.993772789</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5153,17 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5192,17 @@
         <v>-1532174.805872789</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5231,17 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5270,17 @@
         <v>-1532074.805872789</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5309,17 @@
         <v>-1493323.363172789</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5348,17 @@
         <v>-1492067.995672789</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>30</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5387,17 @@
         <v>-1492260.217372789</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>30.2</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5426,17 @@
         <v>-1492260.217372789</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5465,17 @@
         <v>-1492260.217372789</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5504,17 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5543,17 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5582,17 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5621,17 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5660,17 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5699,17 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5738,17 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5777,17 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5816,17 @@
         <v>-1522889.044372789</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5855,17 @@
         <v>-1744525.310072789</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5894,17 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5933,17 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5972,17 @@
         <v>-1741606.858972789</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6011,17 @@
         <v>-1852789.786772789</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6050,17 @@
         <v>-1876683.70407279</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>29.6</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6089,17 @@
         <v>-1876683.70407279</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6128,17 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6167,17 @@
         <v>-1876241.563772789</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6210,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6247,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6280,17 @@
         <v>-1877696.40687279</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6323,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6360,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6397,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6434,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6471,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6508,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6545,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6582,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6619,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6656,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6693,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6730,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6763,15 @@
         <v>-1679418.87307279</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6800,15 @@
         <v>-1579063.507718249</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6837,15 @@
         <v>-1518172.933139049</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6878,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6915,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6952,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6989,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7026,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7063,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7100,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7137,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7174,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7211,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7248,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7285,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7322,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7359,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7396,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7433,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7470,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7507,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7544,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7581,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7618,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7651,15 @@
         <v>-1617677.61523905</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7688,15 @@
         <v>-1617677.61523905</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7725,15 @@
         <v>-1624108.966839049</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7762,15 @@
         <v>-1624108.966839049</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7799,15 @@
         <v>-1621640.582939049</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7836,15 @@
         <v>-1620045.307839049</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7877,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7914,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7947,15 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7984,15 @@
         <v>-1641314.57353905</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8025,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8062,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8099,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8136,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8173,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8210,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +8243,15 @@
         <v>-1643406.88933905</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8280,15 @@
         <v>-1695922.71063905</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8321,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8358,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8395,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8428,15 @@
         <v>-1772013.79583905</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8469,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8506,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8543,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8580,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8617,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8654,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8691,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8728,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8765,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,15 +8798,15 @@
         <v>-1778513.12993905</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>30</v>
-      </c>
-      <c r="J239" t="n">
-        <v>30</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8312,12 +8838,10 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>30</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8351,12 +8875,10 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>30</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -8391,7 +8913,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8424,7 +8950,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8457,7 +8987,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8490,7 +9024,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8523,7 +9061,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8556,7 +9098,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8589,7 +9135,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8622,7 +9172,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8655,7 +9209,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8688,7 +9246,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8721,7 +9283,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8754,7 +9320,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8783,11 +9353,15 @@
         <v>-1730114.15313905</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8820,7 +9394,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8853,7 +9431,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8886,7 +9468,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8919,7 +9505,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +9542,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8985,7 +9579,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9018,7 +9616,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9051,7 +9653,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9080,15 +9686,15 @@
         <v>-1759151.819939049</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J263" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9117,17 +9723,13 @@
         <v>-1759151.819939049</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J264" t="n">
-        <v>30.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9161,12 +9763,10 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -9197,15 +9797,15 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J266" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9234,17 +9834,13 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J267" t="n">
-        <v>30.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9275,17 +9871,13 @@
         <v>-1760491.021939049</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J268" t="n">
-        <v>30.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L268" t="n">
@@ -9316,15 +9908,15 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J269" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9358,12 +9950,10 @@
       <c r="I270" t="n">
         <v>30.4</v>
       </c>
-      <c r="J270" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -9399,12 +9989,10 @@
       <c r="I271" t="n">
         <v>30.4</v>
       </c>
-      <c r="J271" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9440,10 +10028,12 @@
       <c r="I272" t="n">
         <v>30.4</v>
       </c>
-      <c r="J272" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9472,15 +10062,15 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
         <v>30.4</v>
       </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9511,15 +10101,15 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
         <v>30.4</v>
       </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -9550,11 +10140,17 @@
         <v>-1739986.477839049</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9583,11 +10179,17 @@
         <v>-1729586.477839049</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9616,11 +10218,17 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9649,11 +10257,17 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9682,11 +10296,17 @@
         <v>-1686920.105339049</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9715,11 +10335,17 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9748,11 +10374,17 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9781,11 +10413,17 @@
         <v>-1679483.287239049</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9814,11 +10452,17 @@
         <v>-1653301.505739049</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9847,11 +10491,17 @@
         <v>-1653301.505739049</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9880,11 +10530,17 @@
         <v>-1649506.852039049</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9913,11 +10569,17 @@
         <v>-1737551.768739049</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>31</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9950,7 +10612,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9979,11 +10645,17 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10012,11 +10684,17 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10045,11 +10723,17 @@
         <v>-1739511.768739049</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10078,11 +10762,17 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10111,11 +10801,17 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10144,11 +10840,17 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10177,11 +10879,17 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10210,11 +10918,17 @@
         <v>-1740341.983039049</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10243,11 +10957,17 @@
         <v>-1662174.00983905</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10280,7 +11000,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10313,7 +11037,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10346,7 +11074,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10379,7 +11111,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10408,14 +11144,16 @@
         <v>-1190480.13483905</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
@@ -10441,7 +11179,7 @@
         <v>-1190480.13483905</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10474,7 +11212,7 @@
         <v>-1271156.716039049</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10507,7 +11245,7 @@
         <v>-1347423.124739049</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11365,7 +12103,7 @@
         <v>-1518866.840035749</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11431,7 +12169,7 @@
         <v>-1488724.013635749</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11827,7 +12565,7 @@
         <v>-1369681.968935749</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11860,7 +12598,7 @@
         <v>-1369681.968935749</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11893,7 +12631,7 @@
         <v>-1369681.968935749</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11926,7 +12664,7 @@
         <v>-1368411.85223575</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11959,7 +12697,7 @@
         <v>-1453453.47943575</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11992,7 +12730,7 @@
         <v>-1453453.47943575</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12025,7 +12763,7 @@
         <v>-1453443.47943575</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12058,7 +12796,7 @@
         <v>-1479166.09513575</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12091,7 +12829,7 @@
         <v>-1479166.09513575</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12124,7 +12862,7 @@
         <v>-1479166.09513575</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12157,7 +12895,7 @@
         <v>-1486330.10713575</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12190,7 +12928,7 @@
         <v>-1487030.94073575</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12223,7 +12961,7 @@
         <v>-1495940.20323575</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12256,7 +12994,7 @@
         <v>-1488937.18323575</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12289,7 +13027,7 @@
         <v>-1483208.99573575</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12322,7 +13060,7 @@
         <v>-1484462.760735749</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12355,7 +13093,7 @@
         <v>-1483462.760735749</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12388,7 +13126,7 @@
         <v>-1483462.760735749</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12421,7 +13159,7 @@
         <v>-1483562.760735749</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12454,7 +13192,7 @@
         <v>-1483562.760735749</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12487,7 +13225,7 @@
         <v>-1489902.997735749</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12520,7 +13258,7 @@
         <v>-1489902.997735749</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12553,7 +13291,7 @@
         <v>-1489892.997735749</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12586,7 +13324,7 @@
         <v>-1525280.826435749</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12619,7 +13357,7 @@
         <v>-1525280.826435749</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12652,7 +13390,7 @@
         <v>-1525280.826435749</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12685,7 +13423,7 @@
         <v>-1525280.826435749</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12718,7 +13456,7 @@
         <v>-1512139.037835749</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12751,7 +13489,7 @@
         <v>-1512129.037835749</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12784,7 +13522,7 @@
         <v>-1512129.037835749</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12817,7 +13555,7 @@
         <v>-1515415.037835749</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12850,7 +13588,7 @@
         <v>-1439000.381935749</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12883,7 +13621,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12916,7 +13654,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12949,7 +13687,7 @@
         <v>-1374558.555435749</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12982,7 +13720,7 @@
         <v>-1324888.47413575</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13015,7 +13753,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13048,7 +13786,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13081,7 +13819,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13114,7 +13852,7 @@
         <v>-1326935.96353575</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13147,7 +13885,7 @@
         <v>-1381853.27793575</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
